--- a/biology/Origine et évolution du vivant/Innovation_clé/Innovation_clé.xlsx
+++ b/biology/Origine et évolution du vivant/Innovation_clé/Innovation_clé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Innovation_cl%C3%A9</t>
+          <t>Innovation_clé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biologie de l'évolution, une innovation clé (terme utilisé peut-être pour la première fois par l'ornithologue Alden H. Miller (en) en 1949)[3], appelée aussi mutation clé, est une hypothèse selon laquelle l'acquisition d'un nouveau trait phénotypique dans une lignée susciterait une explosion rapide du nombre d'espèces au sein d'un groupe taxonomique, ce que l'on appelle une radiation évolutive.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biologie de l'évolution, une innovation clé (terme utilisé peut-être pour la première fois par l'ornithologue Alden H. Miller (en) en 1949), appelée aussi mutation clé, est une hypothèse selon laquelle l'acquisition d'un nouveau trait phénotypique dans une lignée susciterait une explosion rapide du nombre d'espèces au sein d'un groupe taxonomique, ce que l'on appelle une radiation évolutive.
 L'acquisition de ce trait résulte d'une innovation génétique (mutation) fixée dans une population ou une espèce parce qu'elle entraîne une modification d'un caractère (phénotype).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Innovation_cl%C3%A9</t>
+          <t>Innovation_clé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mécanismes écologiques et évolutifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs mécanismes écologiques et évolutifs contribuent au succès évolutif d'un groupe taxonomique. La diversification peut être stimulée par des innovations qui permettent : l'augmentation de la fitness de divers rameaux de la radiation évolutive du groupe ; la colonisation de plusieurs niches écologiques ; la mise en place d'un isolement reproductif[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs mécanismes écologiques et évolutifs contribuent au succès évolutif d'un groupe taxonomique. La diversification peut être stimulée par des innovations qui permettent : l'augmentation de la fitness de divers rameaux de la radiation évolutive du groupe ; la colonisation de plusieurs niches écologiques ; la mise en place d'un isolement reproductif.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Innovation_cl%C3%A9</t>
+          <t>Innovation_clé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette hypothèse proposée dans le cadre de la théorie de l'évolution, est critiquée car elle se révèle difficile à tester[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette hypothèse proposée dans le cadre de la théorie de l'évolution, est critiquée car elle se révèle difficile à tester.
 </t>
         </is>
       </c>
